--- a/Data/EC/NIT-9009630361.xlsx
+++ b/Data/EC/NIT-9009630361.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE97AB3-C25E-4879-A27D-55B5C989B4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F6810D-478F-4708-8107-8FDCD85BD9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A907DBAA-662A-48B0-B906-9CCE46B7A949}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21959860-D386-4E65-8F5B-938140D64EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,73 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9146138</t>
+  </si>
+  <si>
+    <t>EPARQUIO LUIS AMARANTO BELTRAN</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>73266013</t>
   </si>
   <si>
     <t>WILLIAM ORTIZ ORTIZ</t>
   </si>
   <si>
-    <t>2506</t>
+    <t>19249925</t>
+  </si>
+  <si>
+    <t>JAIME LUIS AMARANTO MERCADO</t>
+  </si>
+  <si>
+    <t>73265981</t>
+  </si>
+  <si>
+    <t>RAMON OLIVERO SARA</t>
+  </si>
+  <si>
+    <t>1045309902</t>
+  </si>
+  <si>
+    <t>KEIDER DE JESUS SARA CASSIANI</t>
+  </si>
+  <si>
+    <t>72250907</t>
+  </si>
+  <si>
+    <t>YESID ENRIQUE DE LA CRUZ ESCORCIA</t>
+  </si>
+  <si>
+    <t>1051358115</t>
+  </si>
+  <si>
+    <t>JAVIER ENRIQUE SALAS ESCORCIA</t>
+  </si>
+  <si>
+    <t>73267118</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO SARA CASSIANI</t>
+  </si>
+  <si>
+    <t>1051361081</t>
+  </si>
+  <si>
+    <t>LEONAL JOSE CARRASQUILLA SARMIENTO</t>
+  </si>
+  <si>
+    <t>1127948009</t>
+  </si>
+  <si>
+    <t>MANUEL JOSE REALES ORTIZ</t>
   </si>
   <si>
     <t>7912541</t>
   </si>
   <si>
     <t>HENIO JOSE REALES TEJEDA</t>
-  </si>
-  <si>
-    <t>73265981</t>
-  </si>
-  <si>
-    <t>RAMON OLIVERO SARA</t>
-  </si>
-  <si>
-    <t>1048442140</t>
-  </si>
-  <si>
-    <t>DEIVER DE JESUS HERNANDEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1042462685</t>
-  </si>
-  <si>
-    <t>ALEJANDRO MIGUEL CASTILLA CASSIANI</t>
-  </si>
-  <si>
-    <t>7912316</t>
-  </si>
-  <si>
-    <t>CALIXTO SALAS SARMIENTO</t>
-  </si>
-  <si>
-    <t>72250907</t>
-  </si>
-  <si>
-    <t>YESID ENRIQUE DE LA CRUZ ESCORCIA</t>
-  </si>
-  <si>
-    <t>1127948009</t>
-  </si>
-  <si>
-    <t>MANUEL JOSE REALES ORTIZ</t>
-  </si>
-  <si>
-    <t>19249925</t>
-  </si>
-  <si>
-    <t>JAIME LUIS AMARANTO MERCADO</t>
-  </si>
-  <si>
-    <t>1051358115</t>
-  </si>
-  <si>
-    <t>JAVIER ENRIQUE SALAS ESCORCIA</t>
-  </si>
-  <si>
-    <t>1045308843</t>
-  </si>
-  <si>
-    <t>MANUEL SEBASTIAN CASSIANI CASSIANI</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -175,7 +175,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10C5BA3-3ED4-D13D-7AC6-6D2727CBB30E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F38DB0-FBE9-52BF-7749-462E05CDC1D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,28 +896,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E52FDFF-96E6-41C1-934A-2619DF027DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6C4D9-B259-4EE5-BE13-ABD4F4439522}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -930,7 +930,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -941,7 +941,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -952,7 +952,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -963,8 +963,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
@@ -979,8 +979,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -995,15 +995,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>641400</v>
+        <v>715112</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,8 +1011,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1074,16 +1074,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>180000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>4500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G20" s="18">
         <v>1423500</v>
@@ -1175,7 +1175,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1189,16 +1189,16 @@
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>56940</v>
+        <v>72000</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>1800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1212,16 +1212,16 @@
         <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>72000</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>1800000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>56940</v>
+        <v>32266</v>
       </c>
       <c r="G23" s="18">
         <v>1423500</v>
@@ -1244,7 +1244,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="32" t="s">
         <v>41</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="32" t="s">
         <v>40</v>
       </c>
